--- a/datamining/final_data/tfidf1983_nltk.xlsx
+++ b/datamining/final_data/tfidf1983_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HB36"/>
+  <dimension ref="A1:FZ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,1035 +447,895 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>concerning</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>education</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>gifted</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>highly</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>scientists</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>students</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>successful</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>survey</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>talented</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>collaborative</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>developing</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>program</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>teachers</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>adolescent</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>between</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>counseling</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>expressiveness</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>instrumentality</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>relationship</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>self-esteem</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>social</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>traits</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>gifted-child</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>writing</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>characteristics</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>learning</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>verbally</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>ability</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>childrens</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>conditional</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>developmental-study</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>reasoning</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>young</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>70</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>abilities</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>about</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>age</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>career</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>gave</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>identifying</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>magnificent</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>painter</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>research</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>superior</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>visual-arts</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>years</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>directions</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>intellectually</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>questioning</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>book</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>collins</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>karnes</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>review</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>giftedness</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>our</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>relevant</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>resources</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>searching</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>student</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>talent</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>types</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>usde</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>attitudes</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>parent</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>programs</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>study</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>teacher</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>toward</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>bridges</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>college</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>constructing</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>educational</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>high-school</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>by</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>effects</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>primary</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>scale</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>use</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>academically</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>among</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>behaviors</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>perceptions</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>preferred</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>identification</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>or</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>soi</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>tool</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>washout</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>windfall</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>gap</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>theory-practice</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>1982</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>finalists</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>midwest</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>precocity</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>profiles</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>search</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>schooling</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>what</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>administrative</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>educating</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>estimates</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>expenditure</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>instructional-time</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>ratios</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>strategies</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>teacher-pupil</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>curriculum</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>readers</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>reading</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>attainments</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>occupational</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>samples</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>mathematics</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>computers</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>future</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>past</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>present</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>based</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>creativity</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>jungian</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>systems-approach</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>typology</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>able</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>achieving</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
-        <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>child</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>indian</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>poorly</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>summer</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>university-based</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>activities</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>childhood</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>creative</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
-        <is>
-          <t>during</t>
-        </is>
-      </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>high</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>hobbies</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>interests</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>musicians</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>women</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>evaluating</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>issues</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>implications</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
-        <is>
-          <t>its</t>
-        </is>
-      </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>productive</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>professional</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>studies</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>comparison</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>form</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>matrices</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>meeker</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>progressive</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>raven</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>soi-screening</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>standard</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>wisc-r</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>improving</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>pool</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>skills</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>materials</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>primary-aged</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>self-instructional</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>college-students</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>educational-strategies</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>non-gifted</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>outcomes</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>personality</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>academic</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>anxiety</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>depression</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>effect</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>high-school-students</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>levels</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>stress</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>upon</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>cj</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>curriculum-development</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>maker</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>ep</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>js</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>perspective</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>renzulli</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>stoddard</t>
         </is>
@@ -1492,46 +1352,46 @@
         <v>1182</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08</v>
+        <v>0.28</v>
       </c>
       <c r="F2" t="n">
-        <v>0.39</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03</v>
+        <v>0.4</v>
       </c>
       <c r="J2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.32</v>
       </c>
-      <c r="K2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.39</v>
-      </c>
       <c r="M2" t="n">
-        <v>0.39</v>
+        <v>0.22</v>
       </c>
       <c r="N2" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -2026,90 +1886,6 @@
         <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,58 +1900,58 @@
         <v>1183</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="N3" t="n">
-        <v>0.18</v>
+        <v>0.49</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.26</v>
+        <v>0.49</v>
       </c>
       <c r="R3" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -2658,90 +2434,6 @@
         <v>0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2759,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2771,19 +2463,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -2795,52 +2487,52 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="V4" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="W4" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="X4" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
@@ -3290,90 +2982,6 @@
         <v>0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3391,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3457,10 +3065,10 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -3469,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
@@ -3922,90 +3530,6 @@
         <v>0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4026,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -4035,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="K6" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -4050,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -4095,13 +3619,13 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -4113,13 +3637,13 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
@@ -4554,90 +4078,6 @@
         <v>0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4652,13 +4092,13 @@
         <v>1187</v>
       </c>
       <c r="D7" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -4667,13 +4107,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -4736,40 +4176,40 @@
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -5186,90 +4626,6 @@
         <v>0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5284,7 +4640,7 @@
         <v>1188</v>
       </c>
       <c r="D8" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -5302,10 +4658,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K8" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -5314,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -5365,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>0</v>
@@ -5386,82 +4742,82 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
@@ -5818,90 +5174,6 @@
         <v>0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5922,16 +5194,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -5997,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
         <v>0</v>
@@ -6054,13 +5326,13 @@
         <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="BA9" t="n">
         <v>0</v>
@@ -6096,13 +5368,13 @@
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="BO9" t="n">
         <v>0</v>
@@ -6450,90 +5722,6 @@
         <v>0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6551,19 +5739,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -6695,19 +5883,19 @@
         <v>0</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.21</v>
+        <v>0.47</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="BE10" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="BF10" t="n">
         <v>0</v>
@@ -6737,25 +5925,25 @@
         <v>0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="BV10" t="n">
         <v>0</v>
@@ -7082,90 +6270,6 @@
         <v>0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7192,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -7201,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -7342,28 +6446,28 @@
         <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BG11" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BH11" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BI11" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="BK11" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="BL11" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
@@ -7390,34 +6494,34 @@
         <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
@@ -7714,90 +6818,6 @@
         <v>0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7812,28 +6832,28 @@
         <v>1192</v>
       </c>
       <c r="D12" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.16</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
       <c r="K12" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -7842,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -7986,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
@@ -7998,22 +7018,22 @@
         <v>0</v>
       </c>
       <c r="BN12" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BP12" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BR12" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="BT12" t="n">
         <v>0</v>
@@ -8037,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="CB12" t="n">
         <v>0</v>
@@ -8052,22 +7072,22 @@
         <v>0</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
         <v>0</v>
@@ -8346,90 +7366,6 @@
         <v>0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8447,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -8501,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -8648,19 +7584,19 @@
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="BU13" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="BW13" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="BX13" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="BY13" t="n">
         <v>0</v>
@@ -8702,19 +7638,19 @@
         <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
         <v>0</v>
@@ -8978,90 +7914,6 @@
         <v>0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9076,13 +7928,13 @@
         <v>1194</v>
       </c>
       <c r="D14" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -9091,13 +7943,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="K14" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9106,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9148,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -9157,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
@@ -9166,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
@@ -9295,16 +8147,16 @@
         <v>0</v>
       </c>
       <c r="BY14" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="CA14" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="CB14" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="CC14" t="n">
         <v>0</v>
@@ -9349,19 +8201,19 @@
         <v>0</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="CV14" t="n">
         <v>0</v>
@@ -9610,90 +8462,6 @@
         <v>0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9711,10 +8479,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -9723,13 +8491,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9789,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
         <v>0</v>
@@ -9882,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="BK15" t="n">
         <v>0</v>
@@ -9906,7 +8674,7 @@
         <v>0</v>
       </c>
       <c r="BR15" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="BS15" t="n">
         <v>0</v>
@@ -9933,25 +8701,25 @@
         <v>0</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="CB15" t="n">
         <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="CD15" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="CF15" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="CG15" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="CH15" t="n">
         <v>0</v>
@@ -9960,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="CK15" t="n">
         <v>0</v>
@@ -9996,19 +8764,19 @@
         <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="DA15" t="n">
         <v>0</v>
@@ -10242,90 +9010,6 @@
         <v>0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10346,16 +9030,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -10421,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
         <v>0</v>
@@ -10475,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AX16" t="n">
         <v>0</v>
@@ -10586,19 +9270,19 @@
         <v>0</v>
       </c>
       <c r="CH16" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CI16" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CK16" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CL16" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CM16" t="n">
         <v>0</v>
@@ -10643,25 +9327,25 @@
         <v>0</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="DB16" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="DD16" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
@@ -10874,90 +9558,6 @@
         <v>0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10972,13 +9572,13 @@
         <v>1197</v>
       </c>
       <c r="D17" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -10987,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -11053,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -11089,7 +9689,7 @@
         <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -11122,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="BC17" t="n">
         <v>0</v>
@@ -11233,10 +9833,10 @@
         <v>0</v>
       </c>
       <c r="CM17" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="CN17" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="CO17" t="n">
         <v>0</v>
@@ -11296,10 +9896,10 @@
         <v>0</v>
       </c>
       <c r="DH17" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="DJ17" t="n">
         <v>0</v>
@@ -11506,90 +10106,6 @@
         <v>0</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11625,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -11685,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
         <v>0</v>
@@ -11781,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="BK18" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="BL18" t="n">
         <v>0</v>
@@ -11832,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="CC18" t="n">
         <v>0</v>
@@ -11871,22 +10387,22 @@
         <v>0</v>
       </c>
       <c r="CO18" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="CP18" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="CR18" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="CS18" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="CT18" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="CU18" t="n">
         <v>0</v>
@@ -11934,22 +10450,22 @@
         <v>0</v>
       </c>
       <c r="DJ18" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="DK18" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="DL18" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="DM18" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="DN18" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="DO18" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="DP18" t="n">
         <v>0</v>
@@ -12138,90 +10654,6 @@
         <v>0</v>
       </c>
       <c r="FZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12242,16 +10674,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -12317,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -12521,7 +10953,7 @@
         <v>0</v>
       </c>
       <c r="CU19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV19" t="n">
         <v>0</v>
@@ -12584,10 +11016,10 @@
         <v>0</v>
       </c>
       <c r="DP19" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="DQ19" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="DR19" t="n">
         <v>0</v>
@@ -12770,90 +11202,6 @@
         <v>0</v>
       </c>
       <c r="FZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12871,22 +11219,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -12898,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -13156,28 +11504,28 @@
         <v>0</v>
       </c>
       <c r="CV20" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="CW20" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="CX20" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="CY20" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="CZ20" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="DA20" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="DB20" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="DC20" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="DD20" t="n">
         <v>0</v>
@@ -13222,31 +11570,31 @@
         <v>0</v>
       </c>
       <c r="DR20" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DS20" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DT20" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DU20" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DV20" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DW20" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DX20" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DY20" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="DZ20" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="EA20" t="n">
         <v>0</v>
@@ -13402,90 +11750,6 @@
         <v>0</v>
       </c>
       <c r="FZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13500,22 +11764,22 @@
         <v>1201</v>
       </c>
       <c r="D21" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -13524,7 +11788,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -13536,7 +11800,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -13812,13 +12076,13 @@
         <v>0</v>
       </c>
       <c r="DD21" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="DE21" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="DF21" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="DG21" t="n">
         <v>0</v>
@@ -13881,13 +12145,13 @@
         <v>0</v>
       </c>
       <c r="EA21" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="EB21" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="EC21" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="ED21" t="n">
         <v>0</v>
@@ -14034,90 +12298,6 @@
         <v>0</v>
       </c>
       <c r="FZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14135,10 +12315,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -14147,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -14273,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="AY22" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="AZ22" t="n">
         <v>0</v>
@@ -14285,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="BC22" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BD22" t="n">
         <v>0</v>
@@ -14315,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="BM22" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BN22" t="n">
         <v>0</v>
@@ -14345,7 +12525,7 @@
         <v>0</v>
       </c>
       <c r="BW22" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="BX22" t="n">
         <v>0</v>
@@ -14399,7 +12579,7 @@
         <v>0</v>
       </c>
       <c r="CO22" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="CP22" t="n">
         <v>0</v>
@@ -14453,13 +12633,13 @@
         <v>0</v>
       </c>
       <c r="DG22" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="DH22" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="DI22" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="DJ22" t="n">
         <v>0</v>
@@ -14522,16 +12702,16 @@
         <v>0</v>
       </c>
       <c r="ED22" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="EE22" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="EF22" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="EG22" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="EH22" t="n">
         <v>0</v>
@@ -14666,90 +12846,6 @@
         <v>0</v>
       </c>
       <c r="FZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14764,22 +12860,22 @@
         <v>1203</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -14791,7 +12887,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -14803,7 +12899,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -14845,7 +12941,7 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
         <v>0</v>
@@ -15076,7 +13172,7 @@
         <v>0</v>
       </c>
       <c r="DD23" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="DE23" t="n">
         <v>0</v>
@@ -15094,7 +13190,7 @@
         <v>0</v>
       </c>
       <c r="DJ23" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="DK23" t="n">
         <v>0</v>
@@ -15145,7 +13241,7 @@
         <v>0</v>
       </c>
       <c r="EA23" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="EB23" t="n">
         <v>0</v>
@@ -15166,7 +13262,7 @@
         <v>0</v>
       </c>
       <c r="EH23" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="EI23" t="n">
         <v>0</v>
@@ -15298,90 +13394,6 @@
         <v>0</v>
       </c>
       <c r="FZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15399,10 +13411,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -15411,7 +13423,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -15477,7 +13489,7 @@
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
         <v>0</v>
@@ -15729,16 +13741,16 @@
         <v>0</v>
       </c>
       <c r="DK24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DL24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DM24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DN24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="DO24" t="n">
         <v>0</v>
@@ -15801,16 +13813,16 @@
         <v>0</v>
       </c>
       <c r="EI24" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="EJ24" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="EK24" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="EL24" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="EM24" t="n">
         <v>0</v>
@@ -15930,90 +13942,6 @@
         <v>0</v>
       </c>
       <c r="FZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16028,7 +13956,7 @@
         <v>1205</v>
       </c>
       <c r="D25" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -16259,7 +14187,7 @@
         <v>0</v>
       </c>
       <c r="CC25" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="CD25" t="n">
         <v>0</v>
@@ -16373,19 +14301,19 @@
         <v>0</v>
       </c>
       <c r="DO25" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DP25" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DQ25" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DR25" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DS25" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DT25" t="n">
         <v>0</v>
@@ -16445,22 +14373,22 @@
         <v>0</v>
       </c>
       <c r="EM25" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="EN25" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="EO25" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="EP25" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="EQ25" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="ER25" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="ES25" t="n">
         <v>0</v>
@@ -16562,90 +14490,6 @@
         <v>0</v>
       </c>
       <c r="FZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16660,7 +14504,7 @@
         <v>1206</v>
       </c>
       <c r="D26" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -16669,16 +14513,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="H26" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -16696,7 +14540,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -16708,7 +14552,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -17020,25 +14864,25 @@
         <v>0</v>
       </c>
       <c r="DT26" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="DU26" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="DV26" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="DW26" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="DX26" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="DY26" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="DZ26" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="EA26" t="n">
         <v>0</v>
@@ -17095,28 +14939,28 @@
         <v>0</v>
       </c>
       <c r="ES26" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="ET26" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="EU26" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="EV26" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="EW26" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="EX26" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="EY26" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="EZ26" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="FA26" t="n">
         <v>0</v>
@@ -17194,90 +15038,6 @@
         <v>0</v>
       </c>
       <c r="FZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17295,7 +15055,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -17313,7 +15073,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -17334,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -17346,7 +15106,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -17427,7 +15187,7 @@
         <v>0</v>
       </c>
       <c r="AW27" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AX27" t="n">
         <v>0</v>
@@ -17469,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="BK27" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BL27" t="n">
         <v>0</v>
@@ -17499,7 +15259,7 @@
         <v>0</v>
       </c>
       <c r="BU27" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="BV27" t="n">
         <v>0</v>
@@ -17553,7 +15313,7 @@
         <v>0</v>
       </c>
       <c r="CM27" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="CN27" t="n">
         <v>0</v>
@@ -17673,31 +15433,31 @@
         <v>0</v>
       </c>
       <c r="EA27" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EB27" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EC27" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="ED27" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EE27" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EF27" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EG27" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EH27" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EI27" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EJ27" t="n">
         <v>0</v>
@@ -17751,34 +15511,34 @@
         <v>0</v>
       </c>
       <c r="FA27" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="FB27" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="FC27" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="FD27" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="FE27" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="FF27" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="FG27" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="FH27" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="FI27" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="FJ27" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="FK27" t="n">
         <v>0</v>
@@ -17826,90 +15586,6 @@
         <v>0</v>
       </c>
       <c r="FZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17930,16 +15606,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -18005,7 +15681,7 @@
         <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
         <v>0</v>
@@ -18077,7 +15753,7 @@
         <v>0</v>
       </c>
       <c r="BC28" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="BD28" t="n">
         <v>0</v>
@@ -18116,7 +15792,7 @@
         <v>0</v>
       </c>
       <c r="BP28" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="BQ28" t="n">
         <v>0</v>
@@ -18170,7 +15846,7 @@
         <v>0</v>
       </c>
       <c r="CH28" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="CI28" t="n">
         <v>0</v>
@@ -18332,10 +16008,10 @@
         <v>0</v>
       </c>
       <c r="EJ28" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="EK28" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="EL28" t="n">
         <v>0</v>
@@ -18413,10 +16089,10 @@
         <v>0</v>
       </c>
       <c r="FK28" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="FL28" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="FM28" t="n">
         <v>0</v>
@@ -18458,90 +16134,6 @@
         <v>0</v>
       </c>
       <c r="FZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18559,19 +16151,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -18637,7 +16229,7 @@
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
         <v>0</v>
@@ -18970,19 +16562,19 @@
         <v>0</v>
       </c>
       <c r="EL29" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EM29" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EN29" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EO29" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EP29" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EQ29" t="n">
         <v>0</v>
@@ -19051,22 +16643,22 @@
         <v>0</v>
       </c>
       <c r="FM29" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="FN29" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="FO29" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="FP29" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="FQ29" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="FR29" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="FS29" t="n">
         <v>0</v>
@@ -19090,90 +16682,6 @@
         <v>0</v>
       </c>
       <c r="FZ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19188,28 +16696,28 @@
         <v>1210</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -19269,7 +16777,7 @@
         <v>0</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
@@ -19617,31 +17125,31 @@
         <v>0</v>
       </c>
       <c r="EQ30" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="ER30" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="ES30" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="ET30" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="EU30" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="EV30" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="EW30" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="EX30" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="EY30" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="EZ30" t="n">
         <v>0</v>
@@ -19701,111 +17209,27 @@
         <v>0</v>
       </c>
       <c r="FS30" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="FT30" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="FU30" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="FV30" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="FW30" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="FX30" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="FY30" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="FZ30" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="GA30" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="GB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19838,10 +17262,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="K31" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -19850,7 +17274,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -19892,7 +17316,7 @@
         <v>0</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AC31" t="n">
         <v>0</v>
@@ -19901,7 +17325,7 @@
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
@@ -19910,95 +17334,95 @@
         <v>0</v>
       </c>
       <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK31" t="n">
         <v>0.34</v>
       </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK31" t="n">
-        <v>0</v>
-      </c>
       <c r="BL31" t="n">
         <v>0</v>
       </c>
@@ -20048,7 +17472,7 @@
         <v>0</v>
       </c>
       <c r="CB31" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="CC31" t="n">
         <v>0</v>
@@ -20276,13 +17700,13 @@
         <v>0</v>
       </c>
       <c r="EZ31" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="FA31" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="FB31" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="FC31" t="n">
         <v>0</v>
@@ -20354,90 +17778,6 @@
         <v>0</v>
       </c>
       <c r="FZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB31" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="GC31" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="GD31" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="GE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20458,7 +17798,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -20467,13 +17807,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -20482,7 +17822,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -20626,7 +17966,7 @@
         <v>0</v>
       </c>
       <c r="BJ32" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="BK32" t="n">
         <v>0</v>
@@ -20680,7 +18020,7 @@
         <v>0</v>
       </c>
       <c r="CB32" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="CC32" t="n">
         <v>0</v>
@@ -20737,7 +18077,7 @@
         <v>0</v>
       </c>
       <c r="CU32" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="CV32" t="n">
         <v>0</v>
@@ -20917,13 +18257,13 @@
         <v>0</v>
       </c>
       <c r="FC32" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="FD32" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="FE32" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="FF32" t="n">
         <v>0</v>
@@ -20986,90 +18326,6 @@
         <v>0</v>
       </c>
       <c r="FZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE32" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="GF32" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="GG32" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="GH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21087,10 +18343,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -21099,13 +18355,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -21558,19 +18814,19 @@
         <v>0</v>
       </c>
       <c r="FF33" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="FG33" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="FH33" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="FI33" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="FJ33" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="FK33" t="n">
         <v>0</v>
@@ -21618,90 +18874,6 @@
         <v>0</v>
       </c>
       <c r="FZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH33" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="GI33" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="GJ33" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="GK33" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="GL33" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="GM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21719,10 +18891,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -21731,13 +18903,13 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -21797,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
         <v>0</v>
@@ -22205,28 +19377,28 @@
         <v>0</v>
       </c>
       <c r="FK34" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="FL34" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="FM34" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="FN34" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="FO34" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="FP34" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="FQ34" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="FR34" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="FS34" t="n">
         <v>0</v>
@@ -22250,90 +19422,6 @@
         <v>0</v>
       </c>
       <c r="FZ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM34" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="GN34" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="GO34" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="GP34" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="GQ34" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="GR34" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="GS34" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="GT34" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="GU34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22354,16 +19442,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -22429,7 +19517,7 @@
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AF35" t="n">
         <v>0</v>
@@ -22498,7 +19586,7 @@
         <v>0</v>
       </c>
       <c r="BB35" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="BC35" t="n">
         <v>0</v>
@@ -22507,7 +19595,7 @@
         <v>0</v>
       </c>
       <c r="BE35" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="BF35" t="n">
         <v>0</v>
@@ -22540,7 +19628,7 @@
         <v>0</v>
       </c>
       <c r="BP35" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BQ35" t="n">
         <v>0</v>
@@ -22555,7 +19643,7 @@
         <v>0</v>
       </c>
       <c r="BU35" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BV35" t="n">
         <v>0</v>
@@ -22861,13 +19949,13 @@
         <v>0</v>
       </c>
       <c r="FS35" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="FT35" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="FU35" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="FV35" t="n">
         <v>0</v>
@@ -22882,90 +19970,6 @@
         <v>0</v>
       </c>
       <c r="FZ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="GV35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="GW35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="GX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22983,19 +19987,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G36" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -23007,7 +20011,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -23019,7 +20023,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -23130,16 +20134,16 @@
         <v>0</v>
       </c>
       <c r="BB36" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="BC36" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="BD36" t="n">
         <v>0</v>
       </c>
       <c r="BE36" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="BF36" t="n">
         <v>0</v>
@@ -23172,7 +20176,7 @@
         <v>0</v>
       </c>
       <c r="BP36" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="BQ36" t="n">
         <v>0</v>
@@ -23187,7 +20191,7 @@
         <v>0</v>
       </c>
       <c r="BU36" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="BV36" t="n">
         <v>0</v>
@@ -23502,103 +20506,19 @@
         <v>0</v>
       </c>
       <c r="FV36" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="FW36" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="FX36" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="FY36" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="FZ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX36" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="GY36" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="GZ36" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="HA36" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="HB36" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
